--- a/Test Data/Gallery_PanelNode_Repeaters_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_Pro_Lite_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8828D1F6-317E-429D-A5BF-04A6EAFAE77D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C744C30E-57DF-4C95-849B-A153853976C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="18" r:id="rId5"/>
+    <sheet name="Italy" sheetId="19" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -121,6 +122,12 @@
   </si>
   <si>
     <t>NGC-3479/T2506</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3145/T2155 </t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564A8F7D-F9A1-4C23-B28D-2C5E0D7D53C4}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,4 +1115,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05401616-BA63-4C1D-BF83-BFB802282B9B}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_Pro_Lite_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C744C30E-57DF-4C95-849B-A153853976C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEC691F-530A-4353-92F3-DEDBF762377A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="18" r:id="rId5"/>
     <sheet name="Italy" sheetId="19" r:id="rId6"/>
+    <sheet name="Spain" sheetId="20" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -128,6 +129,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-3145/T2155 </t>
+  </si>
+  <si>
+    <t>NGC-3103/T2034</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
   </si>
 </sst>
 </file>
@@ -1121,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05401616-BA63-4C1D-BF83-BFB802282B9B}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,4 +1234,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427A82FF-DCB9-4261-832E-E3A6485F7021}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_Pro_Lite_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEC691F-530A-4353-92F3-DEDBF762377A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D556C5E8-BEEF-42FF-B029-11C764763DD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="18" r:id="rId5"/>
     <sheet name="Italy" sheetId="19" r:id="rId6"/>
     <sheet name="Spain" sheetId="20" r:id="rId7"/>
+    <sheet name="Netherlands" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -135,6 +136,12 @@
   </si>
   <si>
     <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2034</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427A82FF-DCB9-4261-832E-E3A6485F7021}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,4 +1352,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E169B4-5351-40CA-9E59-455D11D75637}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_Pro_Lite_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D556C5E8-BEEF-42FF-B029-11C764763DD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D956D9A1-3472-49C1-8C1E-F37DFCFC34B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Italy" sheetId="19" r:id="rId6"/>
     <sheet name="Spain" sheetId="20" r:id="rId7"/>
     <sheet name="Netherlands" sheetId="21" r:id="rId8"/>
+    <sheet name="UK" sheetId="22" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -142,6 +143,12 @@
   </si>
   <si>
     <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3396</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E169B4-5351-40CA-9E59-455D11D75637}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1463,4 +1470,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D3C308-8A66-46A8-A7BE-559709FAE4CD}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>